--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -28,16 +28,16 @@
     <t xml:space="preserve">花费</t>
   </si>
   <si>
-    <t xml:space="preserve">備註</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淨重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">毛重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重量單位</t>
+    <t xml:space="preserve">公司商号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">体重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">体积单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部门</t>
   </si>
   <si>
     <t xml:space="preserve">BCAC55200002</t>
@@ -190,6 +190,7 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -197,6 +198,7 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -376,10 +378,10 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.671875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.49"/>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -25,19 +25,19 @@
     <t xml:space="preserve">性别</t>
   </si>
   <si>
-    <t xml:space="preserve">花费</t>
+    <t xml:space="preserve">产品描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部门</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMI体重</t>
   </si>
   <si>
     <t xml:space="preserve">公司商号</t>
   </si>
   <si>
-    <t xml:space="preserve">体重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">体积单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">部门</t>
+    <t xml:space="preserve">净重</t>
   </si>
   <si>
     <t xml:space="preserve">BCAC55200002</t>
@@ -375,19 +375,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.49"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,6 +406,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -483,7 +485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
